--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973080.7165486343</v>
+        <v>969606.746520335</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>346.8766818975658</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>47.59077605236209</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.73247399882798</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>108.775530553452</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.49690079789888</v>
+        <v>52.1354461083798</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>221.2651378264986</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>323.1145926954244</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>81.25819606329402</v>
       </c>
       <c r="H10" t="n">
-        <v>73.31370764131943</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>104.5113366705979</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>24.51937289302094</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>26.94362918249663</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1932,7 +1932,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>189.5968436493439</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>183.0690196599915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6788446020108</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.8475351671784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>77.72878559814552</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>22.96159132124588</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>381.6269365471937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>352.0426595656929</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>134.0618870358384</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>129.0246247964033</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>352.0426595656929</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.99240337009249</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.2505781800123</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>236.0502377560825</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>358.7034310077526</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>279.9387901805697</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,22 +3743,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>89.25906081820717</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>62.39561864928997</v>
+        <v>80.30846669433839</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>279.0583553990748</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4034,10 +4034,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>263.5711056362896</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="U46" t="n">
-        <v>78.64571997422863</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.145632153538</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.183115213127</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2649.07760005624</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2430.442933028303</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2430.442933028303</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2099.380045684733</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.611390414618</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.145632153538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.145632153538</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1219.679656148628</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C5" t="n">
-        <v>850.7171392082162</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D5" t="n">
-        <v>850.7171392082162</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2667.116288999204</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2667.116288999204</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2667.116288999204</v>
+        <v>2368.64015070397</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.053401655633</v>
+        <v>2037.577263360399</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.284746385519</v>
+        <v>1684.808608090285</v>
       </c>
       <c r="X5" t="n">
-        <v>1609.81898812444</v>
+        <v>1311.342849829206</v>
       </c>
       <c r="Y5" t="n">
-        <v>1219.679656148628</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>365.6939024587809</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>365.6939024587809</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>365.6939024587809</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="G7" t="n">
         <v>348.0202652891861</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>593.1972104235191</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C8" t="n">
-        <v>593.1972104235191</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D8" t="n">
-        <v>593.1972104235191</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>983.3365423993308</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y8" t="n">
-        <v>593.1972104235191</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583422</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5045,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.382047691939</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2496.204560006109</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2277.569892978172</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2023.808107616263</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1692.745220272692</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1339.976565002578</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>966.5108067414983</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>576.3714747656866</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5130,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5148,7 +5148,7 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I13" t="n">
         <v>99.59950625323012</v>
@@ -5224,25 +5224,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942401</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942401</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5355,43 +5355,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>777.3160057778002</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>408.3534888373885</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D17" t="n">
-        <v>408.3534888373885</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E17" t="n">
-        <v>408.3534888373885</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F17" t="n">
-        <v>408.3534888373885</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G17" t="n">
-        <v>408.3534888373885</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>81.15876887339135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5519,7 +5519,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5543,22 +5543,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.3160057778002</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961344</v>
@@ -5595,40 +5595,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5701,16 +5701,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1219.679656148628</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,10 +5750,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224073</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2336.053401655633</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2336.053401655633</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1983.284746385519</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1609.81898812444</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1219.679656148628</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>108.9687959810045</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
         <v>1268.68094731003</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6048,19 +6048,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6078,13 +6078,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2685.352278288919</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2471.063855107081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2243.755667775683</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>464.928886609972</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C26" t="n">
-        <v>464.928886609972</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D26" t="n">
         <v>464.928886609972</v>
@@ -6230,7 +6230,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6251,25 +6251,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1717.512263598976</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W26" t="n">
-        <v>1364.743608328862</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X26" t="n">
-        <v>991.2778500677821</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y26" t="n">
-        <v>601.1385180919704</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2248.366960976675</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C28" t="n">
-        <v>2248.366960976675</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D28" t="n">
-        <v>2248.366960976675</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E28" t="n">
-        <v>2169.853036130063</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>77.1365084074815</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X28" t="n">
-        <v>2469.159540120205</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y28" t="n">
-        <v>2248.366960976675</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.175505447095</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C29" t="n">
-        <v>825.2129885066831</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D29" t="n">
-        <v>825.2129885066831</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E29" t="n">
-        <v>439.4247359084389</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5416278463169</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6500,13 +6500,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2561.733043507274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2561.733043507274</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2561.733043507274</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>2561.733043507274</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X31" t="n">
-        <v>2561.733043507274</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y31" t="n">
-        <v>2340.940464363744</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1933.544000781331</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C32" t="n">
-        <v>1564.581483840919</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.315785234169</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E32" t="n">
-        <v>820.5275326359244</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F32" t="n">
-        <v>409.5416278463169</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M33" t="n">
         <v>1313.210296315296</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2067.399859713054</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2556.367951487994</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="U34" t="n">
-        <v>2469.840903686824</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="V34" t="n">
-        <v>2469.840903686824</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="W34" t="n">
-        <v>2469.840903686824</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.840903686824</v>
+        <v>2342.079528306157</v>
       </c>
       <c r="Y34" t="n">
-        <v>2249.048324543294</v>
+        <v>2342.079528306157</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
         <v>1268.68094731003</v>
@@ -6926,37 +6926,37 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6977,10 +6977,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1529.2861479534</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C38" t="n">
-        <v>1160.323631012988</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>802.0579324062376</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>416.2696798079933</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>416.2696798079933</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.885988017521</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y38" t="n">
-        <v>1915.885988017521</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>144.103649313503</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7494,10 +7494,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7509,22 +7509,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7546,28 +7546,28 @@
         <v>579.9823256406182</v>
       </c>
       <c r="C43" t="n">
-        <v>411.0461427127113</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D43" t="n">
-        <v>411.0461427127113</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="E43" t="n">
-        <v>411.0461427127113</v>
+        <v>281.9525926458894</v>
       </c>
       <c r="F43" t="n">
-        <v>411.0461427127113</v>
+        <v>135.062645147979</v>
       </c>
       <c r="G43" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,19 +7576,19 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
         <v>579.9823256406182</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>850.7171392082162</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="C44" t="n">
-        <v>850.7171392082162</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W44" t="n">
-        <v>1627.45631124815</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X44" t="n">
-        <v>1627.45631124815</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y44" t="n">
-        <v>1237.316979272338</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U46" t="n">
-        <v>2617.708969832133</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V46" t="n">
-        <v>2617.708969832133</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>66.90748812322914</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>126.8249367566094</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22723,10 +22723,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22765,13 +22765,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>144.6832388101436</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>142.4486369548372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22945,16 +22945,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.812901461152</v>
+        <v>115.1743561506711</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22984,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>161.4687038369819</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>46.61650798304458</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,25 +23182,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>86.05160619575689</v>
       </c>
       <c r="H10" t="n">
-        <v>82.85718120047572</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,7 +23276,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>47.41997957426331</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>29.95902968179077</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>124.9876870623646</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,19 +23941,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>35.43826180874041</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>68.15514784829784</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>73.76038744430525</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>134.9863473781471</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.8863064963022</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>325.7540392130739</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24607,22 +24607,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>68.70517704842365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>133.2092975205493</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>61.74151045510206</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,13 +24889,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>90.97321842224585</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>89.56002855569147</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>61.74151045510206</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.2544177285353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>36.41461380014556</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>133.6808629223865</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>38.46332039683764</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,7 +25363,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25394,16 +25394,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>55.08073901304238</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,16 +25603,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>62.67225542665408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25786,28 +25786,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>104.9141836097609</v>
+        <v>87.00133556471252</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>127.8176903426366</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>85.66986308112337</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,10 +26074,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="U46" t="n">
-        <v>207.6361542677491</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.974610786</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="E2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="F2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
@@ -26335,22 +26335,22 @@
         <v>274694.9795149696</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149699</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149698</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26497,19 +26497,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415945.69082318</v>
+        <v>-416360.9053326474</v>
       </c>
       <c r="C6" t="n">
-        <v>174022.1883913643</v>
+        <v>173606.973881897</v>
       </c>
       <c r="D6" t="n">
-        <v>174022.1883913644</v>
+        <v>173606.973881897</v>
       </c>
       <c r="E6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="F6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="G6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="H6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="J6" t="n">
-        <v>31226.56919877145</v>
+        <v>30811.35468930402</v>
       </c>
       <c r="K6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.573881897</v>
       </c>
       <c r="M6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="N6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="O6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="P6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818971</v>
       </c>
     </row>
   </sheetData>
@@ -26817,19 +26817,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36923,7 +36923,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,7 +37160,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,13 +37555,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,13 +38108,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969606.746520335</v>
+        <v>998451.0572750625</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920923</v>
+        <v>8730793.489920922</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>377.3754308241824</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>346.8766818975658</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>126.0887386816668</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>108.775530553452</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.1354461083798</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.2651378264986</v>
+        <v>26.57050420930905</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="10">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>81.25819606329402</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>169.3575929423584</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24.51937289302094</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>92.39479380343629</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>112.7016475500167</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>290.5286403308944</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.44006580438074</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>120.4120358099646</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.998219257060982</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22.96159132124588</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>352.0426595656929</v>
+        <v>368.0745826192873</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2931,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.0246247964033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>339.0399185806818</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.2505781800123</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>236.0502377560825</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>80.83194702764908</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>279.9387901805697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>89.25906081820717</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>80.30846669433839</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>279.0583553990748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>106.2605649606732</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>94.63926978364046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339187</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495797</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>181.3053441250784</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.64015070397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2037.577263360399</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1684.808608090285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1311.342849829206</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>921.2035178533938</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576.3714747656866</v>
+        <v>2065.583954036491</v>
       </c>
       <c r="C8" t="n">
-        <v>207.4089578252748</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D8" t="n">
-        <v>207.4089578252748</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E8" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.8716139843721</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>2547.032451605887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>2399.119358023494</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>2399.119358023494</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>2317.040372100974</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.3714747656866</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2672.382047691939</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2496.204560006109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2277.569892978172</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2023.808107616263</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1692.745220272692</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1339.976565002578</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>966.5108067414983</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>576.3714747656866</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,13 +5123,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5154,13 +5156,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5358,28 +5360,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C17" t="n">
-        <v>1546.944160717209</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.678462110459</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E17" t="n">
-        <v>802.8902095122144</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>391.9043047226068</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,49 +5594,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>1562.144220371539</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>1176.355967773295</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>765.3700629836871</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>347.406254881874</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.0596212327002</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>606.50066520647</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.7080860629399</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1192.157102157134</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C26" t="n">
-        <v>823.1945852167225</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6224,10 +6226,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6260,16 +6262,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2695.130687728262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2342.362032458147</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1968.896274197068</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y26" t="n">
-        <v>1578.756942221256</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G28" t="n">
-        <v>77.1365084074815</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6412,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>246.1363086691491</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>246.1363086691491</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C29" t="n">
-        <v>1564.581483840919</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.315785234169</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E29" t="n">
-        <v>820.5275326359244</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F29" t="n">
-        <v>409.5416278463169</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,10 +6463,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6500,13 +6502,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6652,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.409918978289</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.447402037878</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.181703431127</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E32" t="n">
-        <v>807.393450832883</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F32" t="n">
-        <v>396.4075460432754</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036446</v>
@@ -6698,7 +6700,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733129</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018223</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.009759042411</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.447464661593</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2342.079528306157</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C34" t="n">
-        <v>2342.079528306157</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D34" t="n">
-        <v>2191.962888893821</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2191.962888893821</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2191.962888893821</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6877,31 +6879,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2556.367951487994</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2342.079528306157</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y34" t="n">
-        <v>2342.079528306157</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2403.685817956713</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y35" t="n">
-        <v>2013.546485980902</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.0273259635869</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005475</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635869</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635869</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.0273259635869</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1637.643464250441</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7178,7 +7180,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7205,19 +7207,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.500659677163</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.669117063478</v>
       </c>
       <c r="X38" t="n">
-        <v>2414.382636290375</v>
+        <v>1558.203358802398</v>
       </c>
       <c r="Y38" t="n">
-        <v>2024.243304314563</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7366,16 +7368,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
-        <v>2153.047432775375</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.314837422907</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.352320482495</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>857.0866218757444</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E41" t="n">
-        <v>471.2983692775002</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F41" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>144.103649313503</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
@@ -7412,49 +7414,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.914677487028</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
+        <v>53.94298182036469</v>
+      </c>
+      <c r="J42" t="n">
         <v>53.94298182036446</v>
       </c>
-      <c r="J42" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>281.9525926458894</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>135.062645147979</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406182</v>
+        <v>211.647186529604</v>
       </c>
       <c r="V43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1603.407129497229</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C44" t="n">
-        <v>1234.444612556817</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="D44" t="n">
-        <v>1234.444612556817</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.444612556817</v>
+        <v>572.262790610652</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>161.2768858210445</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.546461473041</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.546461473041</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1603.407129497229</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
@@ -7746,28 +7748,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>343.3601518573251</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.554939248079393</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.90748812322914</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22604,7 +22606,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22765,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042796</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>142.4486369548372</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.1743561506711</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.4687038369819</v>
+        <v>356.1633374541715</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23182,16 +23184,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>86.05160619575689</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>185.3254486783245</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.95902968179077</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8780979675713</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>54.60815470903418</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>33.39413243346274</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421884</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>105.2976195790726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>325.7540392130739</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2092975205493</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24652,16 +24654,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>61.74151045510206</v>
+        <v>45.70958740150769</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.56002855569147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74425144011315</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>2.216311695244599</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>36.41461380014556</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>133.6808629223865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>38.46332039683764</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25445,16 +25447,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>170.3922204806402</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841429</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25606,16 +25608,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>85.16958467259889</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>62.67225542665408</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>87.00133556471252</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25831,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>127.8176903426366</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>307.5236050601218</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3958356744438</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.974610786</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
@@ -26323,37 +26325,37 @@
         <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26445,7 +26447,7 @@
         <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>18228.92756966326</v>
+        <v>18228.92756966327</v>
       </c>
       <c r="M4" t="n">
         <v>18228.92756966326</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326474</v>
+        <v>-416360.9053326475</v>
       </c>
       <c r="C6" t="n">
         <v>173606.973881897</v>
@@ -26531,37 +26533,37 @@
         <v>207234.5738818971</v>
       </c>
       <c r="F6" t="n">
+        <v>207234.573881897</v>
+      </c>
+      <c r="G6" t="n">
+        <v>207234.573881897</v>
+      </c>
+      <c r="H6" t="n">
         <v>207234.5738818969</v>
       </c>
-      <c r="G6" t="n">
-        <v>207234.5738818969</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>207234.573881897</v>
       </c>
-      <c r="I6" t="n">
-        <v>207234.5738818969</v>
-      </c>
       <c r="J6" t="n">
-        <v>30811.35468930402</v>
+        <v>30811.35468930412</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.5738818971</v>
+        <v>207234.573881897</v>
       </c>
       <c r="L6" t="n">
         <v>207234.573881897</v>
       </c>
       <c r="M6" t="n">
+        <v>207234.573881897</v>
+      </c>
+      <c r="N6" t="n">
         <v>207234.5738818971</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>207234.5738818968</v>
+      </c>
+      <c r="P6" t="n">
         <v>207234.5738818969</v>
-      </c>
-      <c r="O6" t="n">
-        <v>207234.573881897</v>
-      </c>
-      <c r="P6" t="n">
-        <v>207234.5738818971</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26805,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L32" t="n">
         <v>421.5361394435301</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998451.0572750625</v>
+        <v>947131.3959306955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564203</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>377.3754308241824</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>125.4763835556444</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.0887386816668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>151.1614543711058</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.57050420930905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.5083077047354</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>169.3575929423584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>365.7638206809703</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>6.390346842435374</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>142.8352045517466</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>152.4625225902371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>92.39479380343629</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>258.9532605518248</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>112.7016475500167</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>376.1848636439243</v>
       </c>
       <c r="H20" t="n">
-        <v>290.5286403308944</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.44006580438074</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>22.35153719005458</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>116.3856072204749</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>6.390346842435374</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>86.88462298447462</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>368.0745826192873</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>36.31606325004098</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.9927694103898</v>
       </c>
       <c r="H32" t="n">
-        <v>321.7064610691125</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7806877295488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.0179384138202</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>339.0399185806818</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>80.83194702764908</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.336490673523</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>321.7064610691125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>340.228060281861</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>106.2605649606732</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.740694543503</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C2" t="n">
-        <v>1744.740694543503</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D2" t="n">
-        <v>1744.740694543503</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1744.740694543503</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>181.3053441250784</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="6">
@@ -4628,19 +4628,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.583954036491</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.62143709608</v>
+        <v>1157.143510575154</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.355738489329</v>
+        <v>1157.143510575154</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.422847177208</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C11" t="n">
-        <v>1920.409918978289</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>809.1896391468615</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>423.4013865486173</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5053,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124031</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124031</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124031</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124031</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124031</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>721.6740884059947</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124031</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
         <v>53.94298182036445</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5308,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J15" t="n">
         <v>53.94298182036445</v>
@@ -5381,7 +5381,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1689.203741822952</v>
+        <v>1899.21241430279</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.875667274027</v>
+        <v>1530.249897362378</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y17" t="n">
-        <v>2075.803581887074</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5603,7 +5603,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005474</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1920.409918978289</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D20" t="n">
-        <v>1562.144220371539</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E20" t="n">
-        <v>1176.355967773295</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F20" t="n">
-        <v>765.3700629836871</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="G20" t="n">
-        <v>347.406254881874</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5794,10 +5794,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036446</v>
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761946</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482877</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D22" t="n">
-        <v>227.427697035952</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036446</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2579.587871603602</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.826086241693</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1994.763198898123</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,7 +6080,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044453</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C25" t="n">
-        <v>2125.771864116546</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874692</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2310.5492509541</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>1941.586734013689</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>1583.321035406938</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.775345511217</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.775345511217</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>1222.509646904466</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>836.7213943062218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>425.7354895166142</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6469,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247703</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="D32" t="n">
-        <v>764.6872557005406</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="E32" t="n">
-        <v>378.8990031022964</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="F32" t="n">
-        <v>378.8990031022964</v>
+        <v>788.2011052291998</v>
       </c>
       <c r="G32" t="n">
-        <v>378.8990031022964</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,10 +6718,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6736,16 +6736,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2294.708047044453</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C34" t="n">
-        <v>2125.771864116546</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>215.5772630464454</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>215.5772630464454</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>215.5772630464454</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y34" t="n">
-        <v>2476.356511874693</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037878</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>807.393450832883</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>396.4075460432754</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2567.064746875001</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.064026826587</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D38" t="n">
-        <v>799.1015098861748</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2615.500659677163</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2284.437772333592</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1931.669117063478</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1558.203358802398</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1168.064026826587</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X40" t="n">
-        <v>2407.731920981262</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y40" t="n">
-        <v>2186.939341837732</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
         <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>764.6872557005406</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>378.8990031022964</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>211.647186529604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1327.013560149308</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C44" t="n">
-        <v>958.0510432088963</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="D44" t="n">
-        <v>958.0510432088963</v>
+        <v>1226.5574020672</v>
       </c>
       <c r="E44" t="n">
-        <v>572.262790610652</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>161.2768858210445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.387305656314</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2090.6186503862</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.15289212512</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1327.013560149308</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,49 +7727,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7836,16 +7836,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036445</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>4.554939248079393</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>260.7615551004092</v>
       </c>
     </row>
     <row r="3">
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -22764,16 +22764,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.49591467042796</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>218.5696463073632</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.1633374541715</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.4220623675264</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>185.3254486783245</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>41.11222506074114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.8258083455521</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.73240311247892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.8958961267224</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458411</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>133.8193516517406</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>272.8780979675713</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>95.72978106885813</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>54.60815470903418</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23940,16 +23940,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>37.59930637687069</v>
       </c>
       <c r="H20" t="n">
-        <v>33.39413243346274</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>141.9938968421884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>123.0695108328767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>100.0627131371829</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>219.3193085466018</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>138.1504824736097</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>45.70958740150769</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>333.415037428428</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>10.79140061040522</v>
       </c>
       <c r="H32" t="n">
-        <v>2.216311695244599</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24976,13 +24976,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866354</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>7.29186384523075</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>74.74425144011315</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,13 +25447,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>170.3922204806402</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.49548950841429</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3648512204699</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>85.16958467259889</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>136.6435220329195</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>96.01048066168084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.70230979040076</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>307.5236050601218</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,10 +25921,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26447,7 +26447,7 @@
         <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>18228.92756966327</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
         <v>18228.92756966326</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26490,25 +26490,25 @@
         <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326475</v>
+        <v>-422429.3190784668</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.973881897</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.973881897</v>
+        <v>167538.5601360779</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="F6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360776</v>
       </c>
       <c r="G6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360777</v>
       </c>
       <c r="H6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930412</v>
+        <v>24742.94094348488</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.160136078</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360776</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.5738818968</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,16 +26758,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26810,25 +26810,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36691,7 +36691,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343422</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947131.3959306955</v>
+        <v>992826.6649842922</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89.54108393597883</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>125.4763835556444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>126.3625816734941</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>151.1614543711058</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.63926978364054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>55.66811582074963</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>78.14136292469556</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>271.5083077047354</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.938553216412068</v>
       </c>
       <c r="H10" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>365.7638206809703</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7321982066582</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.390346842435374</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>102.2833012589124</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8352045517466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1815,13 +1815,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>30.05143818257738</v>
       </c>
       <c r="U16" t="n">
-        <v>152.4625225902371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>258.9532605518248</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>179.7943042043781</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.67884460201108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>201.330287938294</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>376.1848636439243</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>182.2117827284203</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>22.35153719005458</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>116.3856072204749</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>151.0108140474361</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>6.390346842435374</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4805812731082</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>144.9998968003361</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>86.88462298447462</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>46.58646588932489</v>
       </c>
       <c r="X29" t="n">
-        <v>36.31606325004098</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>195.7571515107715</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.9927694103898</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>63.4261941571374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.0179384138202</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>91.24097889302404</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>331.9175954548642</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>48.1063726680739</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>201.4156705962625</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>340.228060281861</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.5627341327612</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.9054987607762</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036446</v>
+        <v>1101.606557854604</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036446</v>
+        <v>1101.606557854604</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>715.8183052563595</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>715.8183052563595</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>297.8544971545464</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.505338824898</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036446</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2338.303942475518</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2338.303942475518</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.994543628009</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.855211652197</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.063349339234</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240418</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240418</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240418</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1526.106027515566</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="C8" t="n">
-        <v>1157.143510575154</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1157.143510575154</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
         <v>882.8926947117852</v>
@@ -4795,16 +4795,16 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515566</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240418</v>
+        <v>350.7041574627003</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240418</v>
+        <v>202.7910638803072</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5382038240418</v>
+        <v>55.90111638239685</v>
       </c>
       <c r="G10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1167.455337753612</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.455337753612</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D11" t="n">
-        <v>809.1896391468615</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>423.4013865486173</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5077,16 +5077,16 @@
         <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="X11" t="n">
-        <v>1167.455337753612</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.455337753612</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>721.6740884059947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>573.5274298401787</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>573.5274298401787</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1192.157102157134</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C14" t="n">
-        <v>823.1945852167225</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="D14" t="n">
-        <v>464.928886609972</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4541677024549</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>157.2594477384578</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5308,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2113.174258592771</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1968.896274197068</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.756942221256</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C16" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D16" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E16" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F16" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
         <v>211.6913543878343</v>
@@ -5463,25 +5463,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>365.6939024587809</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="U16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="V16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.6913543878343</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1899.21241430279</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C17" t="n">
-        <v>1530.249897362378</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>646.5392948972226</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>235.553390107615</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>2289.351746278601</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1899.21241430279</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931987</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U19" t="n">
-        <v>286.5323736931987</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V19" t="n">
-        <v>286.5323736931987</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5323736931987</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>286.5323736931987</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.73979454966857</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D20" t="n">
-        <v>819.7159451700475</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>433.9276925718032</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>433.9276925718032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>365.6939024587809</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>76.52029211334889</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1251.855211652197</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5980,61 +5980,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.587871603602</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.826086241693</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1994.763198898123</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W23" t="n">
-        <v>1641.994543628009</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X23" t="n">
-        <v>1641.994543628009</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y23" t="n">
-        <v>1251.855211652197</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,7 +6080,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406185</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2495.655859326154</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2495.655859326154</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2241.894073964245</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1910.831186620675</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1558.062531350561</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1184.596773089481</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>350.9495687306105</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C28" t="n">
-        <v>350.9495687306105</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D28" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6454,13 +6454,13 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,10 +6481,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>1273.032026687597</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>882.8926947117852</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6563,22 +6563,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.149526959219</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>1199.187010018807</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>1199.187010018807</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>1199.187010018807</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>788.2011052291998</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2578.053538763728</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2324.29175340182</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>2324.29175340182</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.288858935031</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X32" t="n">
-        <v>1958.288858935031</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y32" t="n">
-        <v>1568.149526959219</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>215.5772630464454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>215.5772630464454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>215.5772630464454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>365.6939024587812</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>365.6939024587812</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6943,13 +6943,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -7016,16 +7016,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.915471247702</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>1133.649772640952</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>747.8615200427075</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8756152531</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>625.3202087220412</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>625.3202087220412</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2108.117007217057</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2108.117007217057</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1717.977675241246</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7493,10 +7493,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.7222632714563</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C43" t="n">
-        <v>210.7222632714563</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D43" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7605,16 +7605,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694736</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>210.7222632714563</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.823100673951</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C44" t="n">
-        <v>1584.823100673951</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D44" t="n">
-        <v>1226.5574020672</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7687,13 +7687,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.823100673951</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y44" t="n">
-        <v>1584.823100673951</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>234.3816888283783</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>260.7615551004092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>38.52630155726061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22764,16 +22764,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>135.6608973090997</v>
       </c>
     </row>
     <row r="5">
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>201.3896767966409</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>218.5696463073632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.19271039829675</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>111.5787052778782</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,7 +22998,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>287.131528846312</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>110.4220623675264</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="H10" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>41.11222506074114</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>98.02006026347669</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.73240311247892</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>49.64801498594888</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>226.8958961267224</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>194.9836672755069</v>
       </c>
       <c r="U16" t="n">
-        <v>133.8193516517406</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>95.72978106885813</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>233.9898658164169</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,10 +23788,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.1531355799262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>37.59930637687069</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24022,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>187.5193179500488</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>123.0695108328767</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24174,19 +24174,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>100.0627131371829</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>235.2271246086175</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>219.3193085466018</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>89.79231049789934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>29.41581600863546</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>138.1504824736097</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.6545028280881</v>
       </c>
       <c r="X29" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>22.82750184132334</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>10.79140061040522</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,13 +24970,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>153.0221262005204</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>7.29186384523075</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25444,19 +25444,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>257.999989824389</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>110.3648512204699</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,16 +25684,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>17.32337326254884</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>131.7256075138634</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>136.6435220329195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25845,16 +25845,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>181.318171067218</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>41.70230979040076</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>47.05273888545118</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="F2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149698</v>
@@ -26340,19 +26340,19 @@
         <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149697</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26487,16 +26487,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422429.3190784668</v>
+        <v>-416967.7467072295</v>
       </c>
       <c r="C6" t="n">
-        <v>167538.5601360778</v>
+        <v>173000.1325073151</v>
       </c>
       <c r="D6" t="n">
-        <v>167538.5601360779</v>
+        <v>173000.132507315</v>
       </c>
       <c r="E6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="F6" t="n">
-        <v>201166.1601360776</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="G6" t="n">
-        <v>201166.1601360777</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="H6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="I6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="J6" t="n">
-        <v>24742.94094348488</v>
+        <v>30204.51331472217</v>
       </c>
       <c r="K6" t="n">
-        <v>201166.160136078</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="L6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="M6" t="n">
-        <v>201166.1601360776</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="N6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="O6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="P6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26758,16 +26758,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,16 +26807,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,10 +36688,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
